--- a/beta/figuras_db/CandidateCurriculum.xlsx
+++ b/beta/figuras_db/CandidateCurriculum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo\Desktop\LEIC\PS\relatorio\figuras_db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo\Desktop\LEIC\PS\relatorio\beta\figuras_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="G4:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:I17"/>
+      <selection activeCell="I13" sqref="G4:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,37 +634,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="7:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="7:9" ht="63" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="7:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="7:9" ht="63" x14ac:dyDescent="0.25">
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="7:9" ht="63" x14ac:dyDescent="0.25">
